--- a/config/normalconfig/crash.xlsx
+++ b/config/normalconfig/crash.xlsx
@@ -74,10 +74,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>测试日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>详情</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>最大值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本运行时长</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -296,25 +296,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -322,6 +313,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,7 +630,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -660,13 +662,13 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -678,26 +680,26 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -710,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -724,89 +726,89 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8"/>
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8"/>
+      <c r="A13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="A14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="A15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
